--- a/out/CE/falselink/Figori_algorithm_16.xlsx
+++ b/out/CE/falselink/Figori_algorithm_16.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.88170000000000004</v>
+        <v>0.87939999999999996</v>
       </c>
       <c r="B1">
-        <v>0.85509999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="C1">
-        <v>0.85909999999999997</v>
+        <v>0.85229999999999995</v>
       </c>
       <c r="D1">
-        <v>0.86370000000000002</v>
+        <v>0.85940000000000005</v>
       </c>
       <c r="E1">
-        <v>0.87780000000000002</v>
+        <v>0.83430000000000004</v>
       </c>
       <c r="F1">
+        <v>0.87560000000000004</v>
+      </c>
+      <c r="G1">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="H1">
+        <v>0.87660000000000005</v>
+      </c>
+      <c r="I1">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="J1">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="K1">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="L1">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="M1">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="N1">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="O1">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="P1">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.85729999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="S1">
+        <v>0.874</v>
+      </c>
+      <c r="T1">
+        <v>0.85919999999999996</v>
+      </c>
+      <c r="U1">
+        <v>0.86950000000000005</v>
+      </c>
+      <c r="V1">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="W1">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="X1">
         <v>0.85340000000000005</v>
       </c>
-      <c r="G1">
-        <v>0.85050000000000003</v>
-      </c>
-      <c r="H1">
-        <v>0.87990000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.87150000000000005</v>
-      </c>
-      <c r="J1">
-        <v>0.8841</v>
-      </c>
-      <c r="K1">
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="L1">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="M1">
-        <v>0.87480000000000002</v>
-      </c>
-      <c r="N1">
-        <v>0.85209999999999997</v>
-      </c>
-      <c r="O1">
-        <v>0.89539999999999997</v>
-      </c>
-      <c r="P1">
-        <v>0.86570000000000003</v>
-      </c>
-      <c r="Q1">
-        <v>0.872</v>
-      </c>
-      <c r="R1">
-        <v>0.86750000000000005</v>
-      </c>
-      <c r="S1">
-        <v>0.8831</v>
-      </c>
-      <c r="T1">
-        <v>0.86990000000000001</v>
-      </c>
-      <c r="U1">
-        <v>0.8579</v>
-      </c>
-      <c r="V1">
-        <v>0.87109999999999999</v>
-      </c>
-      <c r="W1">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="X1">
-        <v>0.86009999999999998</v>
-      </c>
       <c r="Y1">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.86770000000000003</v>
+      </c>
+      <c r="AA1">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="AB1">
+        <v>0.87190000000000001</v>
+      </c>
+      <c r="AC1">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="AD1">
+        <v>0.85860000000000003</v>
+      </c>
+      <c r="AE1">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="AF1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="AG1">
+        <v>0.88380000000000003</v>
+      </c>
+      <c r="AH1">
+        <v>0.87019999999999997</v>
+      </c>
+      <c r="AI1">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="AJ1">
+        <v>0.85840000000000005</v>
+      </c>
+      <c r="AK1">
+        <v>0.85429999999999995</v>
+      </c>
+      <c r="AL1">
         <v>0.86229999999999996</v>
       </c>
-      <c r="Z1">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="AA1">
-        <v>0.85060000000000002</v>
-      </c>
-      <c r="AB1">
-        <v>0.84409999999999996</v>
-      </c>
-      <c r="AC1">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="AD1">
-        <v>0.83289999999999997</v>
-      </c>
-      <c r="AE1">
-        <v>0.84619999999999995</v>
-      </c>
-      <c r="AF1">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="AG1">
-        <v>0.87429999999999997</v>
-      </c>
-      <c r="AH1">
-        <v>0.88959999999999995</v>
-      </c>
-      <c r="AI1">
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="AJ1">
-        <v>0.86380000000000001</v>
-      </c>
-      <c r="AK1">
-        <v>0.87160000000000004</v>
-      </c>
-      <c r="AL1">
-        <v>0.84899999999999998</v>
-      </c>
       <c r="AM1">
-        <v>0.87729999999999997</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="AN1">
-        <v>0.86729999999999996</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="AO1">
-        <v>0.87780000000000002</v>
+        <v>0.87760000000000005</v>
       </c>
       <c r="AP1">
-        <v>0.85850000000000004</v>
+        <v>0.86819999999999997</v>
       </c>
       <c r="AQ1">
-        <v>0.89439999999999997</v>
+        <v>0.87470000000000003</v>
       </c>
       <c r="AR1">
-        <v>0.85450000000000004</v>
+        <v>0.86260000000000003</v>
       </c>
       <c r="AS1">
-        <v>0.88329999999999997</v>
+        <v>0.87870000000000004</v>
       </c>
       <c r="AT1">
-        <v>0.8629</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="AU1">
-        <v>0.86990000000000001</v>
+        <v>0.87180000000000002</v>
       </c>
       <c r="AV1">
-        <v>0.87739999999999996</v>
+        <v>0.89510000000000001</v>
       </c>
       <c r="AW1">
-        <v>0.88700000000000001</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.85960000000000003</v>
+        <v>0.86560000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.87660000000000005</v>
+        <v>0.8448</v>
       </c>
       <c r="B2">
-        <v>0.8387</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="C2">
-        <v>0.84770000000000001</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="D2">
-        <v>0.84930000000000005</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="E2">
-        <v>0.85960000000000003</v>
+        <v>0.81459999999999999</v>
       </c>
       <c r="F2">
-        <v>0.8266</v>
+        <v>0.86370000000000002</v>
       </c>
       <c r="G2">
-        <v>0.83540000000000003</v>
+        <v>0.8508</v>
       </c>
       <c r="H2">
-        <v>0.85760000000000003</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="I2">
-        <v>0.85529999999999995</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="J2">
-        <v>0.86450000000000005</v>
+        <v>0.83860000000000001</v>
       </c>
       <c r="K2">
-        <v>0.86919999999999997</v>
+        <v>0.85809999999999997</v>
       </c>
       <c r="L2">
-        <v>0.85929999999999995</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="M2">
-        <v>0.85540000000000005</v>
+        <v>0.82120000000000004</v>
       </c>
       <c r="N2">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="P2">
+        <v>0.87839999999999996</v>
+      </c>
+      <c r="Q2">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="R2">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="S2">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="T2">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="U2">
+        <v>0.86150000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="W2">
+        <v>0.85329999999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.84519999999999995</v>
+      </c>
+      <c r="Y2">
+        <v>0.82469999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0.84919999999999995</v>
+      </c>
+      <c r="AA2">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="AB2">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="AC2">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AE2">
         <v>0.8367</v>
       </c>
-      <c r="O2">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="P2">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="Q2">
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="R2">
-        <v>0.85070000000000001</v>
-      </c>
-      <c r="S2">
-        <v>0.85750000000000004</v>
-      </c>
-      <c r="T2">
-        <v>0.85619999999999996</v>
-      </c>
-      <c r="U2">
-        <v>0.85129999999999995</v>
-      </c>
-      <c r="V2">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="W2">
-        <v>0.84160000000000001</v>
-      </c>
-      <c r="X2">
-        <v>0.84409999999999996</v>
-      </c>
-      <c r="Y2">
-        <v>0.84409999999999996</v>
-      </c>
-      <c r="Z2">
-        <v>0.8589</v>
-      </c>
-      <c r="AA2">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="AB2">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="AC2">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="AD2">
-        <v>0.80769999999999997</v>
-      </c>
-      <c r="AE2">
-        <v>0.81779999999999997</v>
-      </c>
       <c r="AF2">
-        <v>0.85799999999999998</v>
+        <v>0.86660000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.85709999999999997</v>
+        <v>0.86509999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.88449999999999995</v>
+        <v>0.8528</v>
       </c>
       <c r="AI2">
-        <v>0.85019999999999996</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="AJ2">
-        <v>0.84</v>
+        <v>0.83389999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.84599999999999997</v>
+        <v>0.82709999999999995</v>
       </c>
       <c r="AL2">
-        <v>0.81369999999999998</v>
+        <v>0.83950000000000002</v>
       </c>
       <c r="AM2">
-        <v>0.8538</v>
+        <v>0.88570000000000004</v>
       </c>
       <c r="AN2">
-        <v>0.84989999999999999</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="AO2">
-        <v>0.86609999999999998</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="AP2">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="AS2">
+        <v>0.8609</v>
+      </c>
+      <c r="AT2">
         <v>0.84309999999999996</v>
       </c>
-      <c r="AQ2">
-        <v>0.8679</v>
-      </c>
-      <c r="AR2">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="AS2">
-        <v>0.8679</v>
-      </c>
-      <c r="AT2">
-        <v>0.85489999999999999</v>
-      </c>
       <c r="AU2">
-        <v>0.8569</v>
+        <v>0.84819999999999995</v>
       </c>
       <c r="AV2">
-        <v>0.86309999999999998</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.86319999999999997</v>
+        <v>0.83960000000000001</v>
       </c>
       <c r="AX2">
-        <v>0.83379999999999999</v>
+        <v>0.84730000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.85050000000000003</v>
+        <v>0.81359999999999999</v>
       </c>
       <c r="B3">
-        <v>0.81040000000000001</v>
+        <v>0.81089999999999995</v>
       </c>
       <c r="C3">
-        <v>0.83340000000000003</v>
+        <v>0.80759999999999998</v>
       </c>
       <c r="D3">
-        <v>0.80510000000000004</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="E3">
-        <v>0.8296</v>
+        <v>0.77759999999999996</v>
       </c>
       <c r="F3">
-        <v>0.78680000000000005</v>
+        <v>0.8478</v>
       </c>
       <c r="G3">
-        <v>0.80689999999999995</v>
+        <v>0.82469999999999999</v>
       </c>
       <c r="H3">
-        <v>0.82189999999999996</v>
+        <v>0.82650000000000001</v>
       </c>
       <c r="I3">
-        <v>0.82950000000000002</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="J3">
-        <v>0.85050000000000003</v>
+        <v>0.82920000000000005</v>
       </c>
       <c r="K3">
-        <v>0.83679999999999999</v>
+        <v>0.81850000000000001</v>
       </c>
       <c r="L3">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="M3">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="N3">
         <v>0.8286</v>
       </c>
-      <c r="M3">
+      <c r="O3">
+        <v>0.8387</v>
+      </c>
+      <c r="P3">
+        <v>0.8478</v>
+      </c>
+      <c r="Q3">
+        <v>0.81689999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="S3">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.81569999999999998</v>
+      </c>
+      <c r="U3">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="Y3">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="AB3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AC3">
+        <v>0.82440000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="AE3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>0.8196</v>
+      </c>
+      <c r="AG3">
+        <v>0.8306</v>
+      </c>
+      <c r="AH3">
+        <v>0.8216</v>
+      </c>
+      <c r="AI3">
         <v>0.83299999999999996</v>
       </c>
-      <c r="N3">
-        <v>0.80059999999999998</v>
-      </c>
-      <c r="O3">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="P3">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="Q3">
-        <v>0.83640000000000003</v>
-      </c>
-      <c r="R3">
-        <v>0.83720000000000006</v>
-      </c>
-      <c r="S3">
-        <v>0.82630000000000003</v>
-      </c>
-      <c r="T3">
-        <v>0.81279999999999997</v>
-      </c>
-      <c r="U3">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="V3">
-        <v>0.82130000000000003</v>
-      </c>
-      <c r="W3">
-        <v>0.81489999999999996</v>
-      </c>
-      <c r="X3">
-        <v>0.82179999999999997</v>
-      </c>
-      <c r="Y3">
-        <v>0.80620000000000003</v>
-      </c>
-      <c r="Z3">
-        <v>0.82579999999999998</v>
-      </c>
-      <c r="AA3">
-        <v>0.80830000000000002</v>
-      </c>
-      <c r="AB3">
-        <v>0.79169999999999996</v>
-      </c>
-      <c r="AC3">
-        <v>0.82479999999999998</v>
-      </c>
-      <c r="AD3">
-        <v>0.7732</v>
-      </c>
-      <c r="AE3">
-        <v>0.80579999999999996</v>
-      </c>
-      <c r="AF3">
-        <v>0.82440000000000002</v>
-      </c>
-      <c r="AG3">
-        <v>0.81240000000000001</v>
-      </c>
-      <c r="AH3">
-        <v>0.84389999999999998</v>
-      </c>
-      <c r="AI3">
-        <v>0.81689999999999996</v>
-      </c>
       <c r="AJ3">
-        <v>0.81130000000000002</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="AK3">
-        <v>0.83399999999999996</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="AL3">
-        <v>0.79500000000000004</v>
+        <v>0.8256</v>
       </c>
       <c r="AM3">
-        <v>0.83420000000000005</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="AN3">
-        <v>0.81559999999999999</v>
+        <v>0.85529999999999995</v>
       </c>
       <c r="AO3">
-        <v>0.82410000000000005</v>
+        <v>0.83320000000000005</v>
       </c>
       <c r="AP3">
-        <v>0.8085</v>
+        <v>0.81659999999999999</v>
       </c>
       <c r="AQ3">
-        <v>0.84319999999999995</v>
+        <v>0.84240000000000004</v>
       </c>
       <c r="AR3">
-        <v>0.82069999999999999</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="AS3">
-        <v>0.82850000000000001</v>
+        <v>0.82110000000000005</v>
       </c>
       <c r="AT3">
-        <v>0.82799999999999996</v>
+        <v>0.81140000000000001</v>
       </c>
       <c r="AU3">
-        <v>0.84040000000000004</v>
+        <v>0.80789999999999995</v>
       </c>
       <c r="AV3">
-        <v>0.83179999999999998</v>
+        <v>0.85550000000000004</v>
       </c>
       <c r="AW3">
-        <v>0.82889999999999997</v>
+        <v>0.80530000000000002</v>
       </c>
       <c r="AX3">
-        <v>0.8095</v>
+        <v>0.81059999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.80330000000000001</v>
+        <v>0.77039999999999997</v>
       </c>
       <c r="B4">
-        <v>0.77049999999999996</v>
+        <v>0.76149999999999995</v>
       </c>
       <c r="C4">
-        <v>0.78990000000000005</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="D4">
-        <v>0.77080000000000004</v>
+        <v>0.79169999999999996</v>
       </c>
       <c r="E4">
-        <v>0.79500000000000004</v>
+        <v>0.7419</v>
       </c>
       <c r="F4">
-        <v>0.76439999999999997</v>
+        <v>0.80430000000000001</v>
       </c>
       <c r="G4">
-        <v>0.76480000000000004</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="H4">
-        <v>0.78280000000000005</v>
+        <v>0.79549999999999998</v>
       </c>
       <c r="I4">
-        <v>0.78820000000000001</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="J4">
-        <v>0.81269999999999998</v>
+        <v>0.79249999999999998</v>
       </c>
       <c r="K4">
-        <v>0.80920000000000003</v>
+        <v>0.7923</v>
       </c>
       <c r="L4">
-        <v>0.76900000000000002</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="M4">
-        <v>0.79920000000000002</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="N4">
-        <v>0.76659999999999995</v>
+        <v>0.78939999999999999</v>
       </c>
       <c r="O4">
-        <v>0.80089999999999995</v>
+        <v>0.8165</v>
       </c>
       <c r="P4">
-        <v>0.76919999999999999</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="Q4">
-        <v>0.80300000000000005</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="R4">
-        <v>0.79469999999999996</v>
+        <v>0.80320000000000003</v>
       </c>
       <c r="S4">
-        <v>0.79920000000000002</v>
+        <v>0.79720000000000002</v>
       </c>
       <c r="T4">
-        <v>0.77949999999999997</v>
+        <v>0.77980000000000005</v>
       </c>
       <c r="U4">
-        <v>0.79259999999999997</v>
+        <v>0.79610000000000003</v>
       </c>
       <c r="V4">
-        <v>0.7742</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="W4">
-        <v>0.76919999999999999</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="X4">
-        <v>0.76449999999999996</v>
+        <v>0.78290000000000004</v>
       </c>
       <c r="Y4">
-        <v>0.75780000000000003</v>
+        <v>0.75470000000000004</v>
       </c>
       <c r="Z4">
-        <v>0.78259999999999996</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="AA4">
-        <v>0.77080000000000004</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="AB4">
-        <v>0.76629999999999998</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="AC4">
-        <v>0.78820000000000001</v>
+        <v>0.80259999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.747</v>
+        <v>0.74890000000000001</v>
       </c>
       <c r="AE4">
-        <v>0.78180000000000005</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="AF4">
-        <v>0.79300000000000004</v>
+        <v>0.77329999999999999</v>
       </c>
       <c r="AG4">
+        <v>0.76</v>
+      </c>
+      <c r="AH4">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="AI4">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AJ4">
+        <v>0.75839999999999996</v>
+      </c>
+      <c r="AK4">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="AL4">
+        <v>0.79430000000000001</v>
+      </c>
+      <c r="AM4">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="AN4">
         <v>0.78690000000000004</v>
       </c>
-      <c r="AH4">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="AI4">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="AJ4">
-        <v>0.79059999999999997</v>
-      </c>
-      <c r="AK4">
-        <v>0.80630000000000002</v>
-      </c>
-      <c r="AL4">
-        <v>0.76170000000000004</v>
-      </c>
-      <c r="AM4">
-        <v>0.7923</v>
-      </c>
-      <c r="AN4">
-        <v>0.78249999999999997</v>
-      </c>
       <c r="AO4">
-        <v>0.79659999999999997</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="AP4">
-        <v>0.77510000000000001</v>
+        <v>0.77910000000000001</v>
       </c>
       <c r="AQ4">
-        <v>0.80830000000000002</v>
+        <v>0.80169999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.77800000000000002</v>
+        <v>0.77380000000000004</v>
       </c>
       <c r="AS4">
-        <v>0.76829999999999998</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="AT4">
-        <v>0.78220000000000001</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="AU4">
-        <v>0.80359999999999998</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="AV4">
-        <v>0.79800000000000004</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="AW4">
-        <v>0.78310000000000002</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="AX4">
-        <v>0.7681</v>
+        <v>0.76290000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.77749999999999997</v>
+        <v>0.74580000000000002</v>
       </c>
       <c r="B5">
-        <v>0.71650000000000003</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="C5">
-        <v>0.74419999999999997</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="D5">
-        <v>0.75219999999999998</v>
+        <v>0.74860000000000004</v>
       </c>
       <c r="E5">
-        <v>0.76139999999999997</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="F5">
-        <v>0.74060000000000004</v>
+        <v>0.76739999999999997</v>
       </c>
       <c r="G5">
-        <v>0.71209999999999996</v>
+        <v>0.73540000000000005</v>
       </c>
       <c r="H5">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.73529999999999995</v>
+      </c>
+      <c r="L5">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.7702</v>
+      </c>
+      <c r="Q5">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="R5">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="S5">
+        <v>0.75349999999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.74660000000000004</v>
+      </c>
+      <c r="U5">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="V5">
+        <v>0.75629999999999997</v>
+      </c>
+      <c r="W5">
+        <v>0.76690000000000003</v>
+      </c>
+      <c r="X5">
         <v>0.74180000000000001</v>
       </c>
-      <c r="I5">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="J5">
-        <v>0.76539999999999997</v>
-      </c>
-      <c r="K5">
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="L5">
-        <v>0.748</v>
-      </c>
-      <c r="M5">
-        <v>0.75949999999999995</v>
-      </c>
-      <c r="N5">
-        <v>0.7359</v>
-      </c>
-      <c r="O5">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="P5">
-        <v>0.74029999999999996</v>
-      </c>
-      <c r="Q5">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="R5">
-        <v>0.76400000000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="T5">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="U5">
-        <v>0.77849999999999997</v>
-      </c>
-      <c r="V5">
-        <v>0.73839999999999995</v>
-      </c>
-      <c r="W5">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="X5">
-        <v>0.73260000000000003</v>
-      </c>
       <c r="Y5">
-        <v>0.71789999999999998</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="Z5">
-        <v>0.75190000000000001</v>
+        <v>0.75939999999999996</v>
       </c>
       <c r="AA5">
-        <v>0.71870000000000001</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="AB5">
-        <v>0.7399</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="AC5">
-        <v>0.75419999999999998</v>
+        <v>0.77039999999999997</v>
       </c>
       <c r="AD5">
-        <v>0.71689999999999998</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="AE5">
-        <v>0.74950000000000006</v>
+        <v>0.75760000000000005</v>
       </c>
       <c r="AF5">
-        <v>0.74929999999999997</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="AG5">
-        <v>0.75980000000000003</v>
+        <v>0.71989999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.78500000000000003</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="AI5">
-        <v>0.76039999999999996</v>
+        <v>0.75870000000000004</v>
       </c>
       <c r="AJ5">
-        <v>0.75239999999999996</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.76570000000000005</v>
+        <v>0.73660000000000003</v>
       </c>
       <c r="AL5">
-        <v>0.74009999999999998</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="AM5">
-        <v>0.75180000000000002</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="AN5">
-        <v>0.754</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.76990000000000003</v>
+        <v>0.7661</v>
       </c>
       <c r="AP5">
-        <v>0.75239999999999996</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="AQ5">
-        <v>0.77339999999999998</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="AR5">
-        <v>0.75570000000000004</v>
+        <v>0.746</v>
       </c>
       <c r="AS5">
-        <v>0.73609999999999998</v>
+        <v>0.75029999999999997</v>
       </c>
       <c r="AT5">
-        <v>0.73670000000000002</v>
+        <v>0.73329999999999995</v>
       </c>
       <c r="AU5">
-        <v>0.75949999999999995</v>
+        <v>0.74680000000000002</v>
       </c>
       <c r="AV5">
-        <v>0.75790000000000002</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="AW5">
-        <v>0.75539999999999996</v>
+        <v>0.74570000000000003</v>
       </c>
       <c r="AX5">
-        <v>0.74260000000000004</v>
+        <v>0.74309999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.745</v>
+        <v>0.71379999999999999</v>
       </c>
       <c r="B6">
-        <v>0.72460000000000002</v>
+        <v>0.69130000000000003</v>
       </c>
       <c r="C6">
-        <v>0.72860000000000003</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="D6">
-        <v>0.72589999999999999</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="E6">
-        <v>0.74380000000000002</v>
+        <v>0.6825</v>
       </c>
       <c r="F6">
-        <v>0.72589999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="G6">
-        <v>0.6794</v>
+        <v>0.70489999999999997</v>
       </c>
       <c r="H6">
-        <v>0.71830000000000005</v>
+        <v>0.73</v>
       </c>
       <c r="I6">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.71419999999999995</v>
+      </c>
+      <c r="L6">
+        <v>0.71379999999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.70479999999999998</v>
+      </c>
+      <c r="N6">
+        <v>0.72829999999999995</v>
+      </c>
+      <c r="O6">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.72089999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="S6">
+        <v>0.71650000000000003</v>
+      </c>
+      <c r="T6">
+        <v>0.71009999999999995</v>
+      </c>
+      <c r="U6">
+        <v>0.74990000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.73860000000000003</v>
+      </c>
+      <c r="W6">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="X6">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="Z6">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="AA6">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="AB6">
+        <v>0.71970000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="AF6">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="AG6">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.72770000000000001</v>
+      </c>
+      <c r="AI6">
+        <v>0.71109999999999995</v>
+      </c>
+      <c r="AJ6">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="AK6">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="AL6">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AM6">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="AN6">
+        <v>0.70569999999999999</v>
+      </c>
+      <c r="AO6">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="AP6">
+        <v>0.71150000000000002</v>
+      </c>
+      <c r="AQ6">
         <v>0.72599999999999998</v>
       </c>
-      <c r="J6">
-        <v>0.74470000000000003</v>
-      </c>
-      <c r="K6">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="L6">
-        <v>0.73870000000000002</v>
-      </c>
-      <c r="M6">
-        <v>0.73270000000000002</v>
-      </c>
-      <c r="N6">
-        <v>0.72950000000000004</v>
-      </c>
-      <c r="O6">
-        <v>0.74829999999999997</v>
-      </c>
-      <c r="P6">
-        <v>0.70089999999999997</v>
-      </c>
-      <c r="Q6">
-        <v>0.73409999999999997</v>
-      </c>
-      <c r="R6">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="S6">
-        <v>0.74780000000000002</v>
-      </c>
-      <c r="T6">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="U6">
-        <v>0.74829999999999997</v>
-      </c>
-      <c r="V6">
-        <v>0.72089999999999999</v>
-      </c>
-      <c r="W6">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="X6">
-        <v>0.70309999999999995</v>
-      </c>
-      <c r="Y6">
-        <v>0.70079999999999998</v>
-      </c>
-      <c r="Z6">
-        <v>0.73229999999999995</v>
-      </c>
-      <c r="AA6">
-        <v>0.70760000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="AC6">
-        <v>0.72060000000000002</v>
-      </c>
-      <c r="AD6">
-        <v>0.70240000000000002</v>
-      </c>
-      <c r="AE6">
-        <v>0.70509999999999995</v>
-      </c>
-      <c r="AF6">
-        <v>0.71230000000000004</v>
-      </c>
-      <c r="AG6">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="AH6">
-        <v>0.74819999999999998</v>
-      </c>
-      <c r="AI6">
-        <v>0.74539999999999995</v>
-      </c>
-      <c r="AJ6">
-        <v>0.73109999999999997</v>
-      </c>
-      <c r="AK6">
-        <v>0.72840000000000005</v>
-      </c>
-      <c r="AL6">
-        <v>0.70660000000000001</v>
-      </c>
-      <c r="AM6">
-        <v>0.72740000000000005</v>
-      </c>
-      <c r="AN6">
-        <v>0.72260000000000002</v>
-      </c>
-      <c r="AO6">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="AP6">
-        <v>0.71360000000000001</v>
-      </c>
-      <c r="AQ6">
-        <v>0.73619999999999997</v>
-      </c>
       <c r="AR6">
-        <v>0.72629999999999995</v>
+        <v>0.72609999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.69279999999999997</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="AT6">
-        <v>0.71550000000000002</v>
+        <v>0.70809999999999995</v>
       </c>
       <c r="AU6">
-        <v>0.72140000000000004</v>
+        <v>0.70860000000000001</v>
       </c>
       <c r="AV6">
-        <v>0.75670000000000004</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="AW6">
-        <v>0.71970000000000001</v>
+        <v>0.7056</v>
       </c>
       <c r="AX6">
-        <v>0.7258</v>
+        <v>0.72319999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.71519999999999995</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="B7">
-        <v>0.68769999999999998</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="C7">
-        <v>0.70289999999999997</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="D7">
-        <v>0.70920000000000005</v>
+        <v>0.69540000000000002</v>
       </c>
       <c r="E7">
-        <v>0.71050000000000002</v>
+        <v>0.63249999999999995</v>
       </c>
       <c r="F7">
-        <v>0.70589999999999997</v>
+        <v>0.73250000000000004</v>
       </c>
       <c r="G7">
-        <v>0.66100000000000003</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="H7">
-        <v>0.68959999999999999</v>
+        <v>0.73270000000000002</v>
       </c>
       <c r="I7">
-        <v>0.6865</v>
+        <v>0.67959999999999998</v>
       </c>
       <c r="J7">
-        <v>0.72260000000000002</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="K7">
-        <v>0.71489999999999998</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="L7">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="M7">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="N7">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="O7">
+        <v>0.73929999999999996</v>
+      </c>
+      <c r="P7">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="R7">
+        <v>0.70720000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.7</v>
+      </c>
+      <c r="T7">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="U7">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="V7">
+        <v>0.69740000000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.73560000000000003</v>
+      </c>
+      <c r="X7">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="Y7">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="Z7">
+        <v>0.70009999999999994</v>
+      </c>
+      <c r="AA7">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.68310000000000004</v>
+      </c>
+      <c r="AC7">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>0.64529999999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AG7">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="AH7">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.71230000000000004</v>
+      </c>
+      <c r="AJ7">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="AK7">
+        <v>0.70530000000000004</v>
+      </c>
+      <c r="AL7">
+        <v>0.72189999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="AN7">
+        <v>0.6714</v>
+      </c>
+      <c r="AO7">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="AP7">
+        <v>0.7</v>
+      </c>
+      <c r="AQ7">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="AR7">
+        <v>0.6956</v>
+      </c>
+      <c r="AS7">
         <v>0.70020000000000004</v>
       </c>
-      <c r="M7">
-        <v>0.71109999999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.71319999999999995</v>
-      </c>
-      <c r="O7">
-        <v>0.72619999999999996</v>
-      </c>
-      <c r="P7">
-        <v>0.69169999999999998</v>
-      </c>
-      <c r="Q7">
-        <v>0.69979999999999998</v>
-      </c>
-      <c r="R7">
-        <v>0.72289999999999999</v>
-      </c>
-      <c r="S7">
-        <v>0.71309999999999996</v>
-      </c>
-      <c r="T7">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="U7">
-        <v>0.73009999999999997</v>
-      </c>
-      <c r="V7">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="W7">
-        <v>0.66180000000000005</v>
-      </c>
-      <c r="X7">
-        <v>0.68</v>
-      </c>
-      <c r="Y7">
-        <v>0.68049999999999999</v>
-      </c>
-      <c r="Z7">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="AA7">
-        <v>0.70250000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>0.71109999999999995</v>
-      </c>
-      <c r="AC7">
-        <v>0.69410000000000005</v>
-      </c>
-      <c r="AD7">
-        <v>0.67310000000000003</v>
-      </c>
-      <c r="AE7">
-        <v>0.69820000000000004</v>
-      </c>
-      <c r="AF7">
-        <v>0.7</v>
-      </c>
-      <c r="AG7">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="AH7">
-        <v>0.72529999999999994</v>
-      </c>
-      <c r="AI7">
-        <v>0.72819999999999996</v>
-      </c>
-      <c r="AJ7">
-        <v>0.69810000000000005</v>
-      </c>
-      <c r="AK7">
-        <v>0.69869999999999999</v>
-      </c>
-      <c r="AL7">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="AM7">
-        <v>0.69669999999999999</v>
-      </c>
-      <c r="AN7">
-        <v>0.70340000000000003</v>
-      </c>
-      <c r="AO7">
-        <v>0.68530000000000002</v>
-      </c>
-      <c r="AP7">
-        <v>0.68810000000000004</v>
-      </c>
-      <c r="AQ7">
-        <v>0.71189999999999998</v>
-      </c>
-      <c r="AR7">
-        <v>0.70640000000000003</v>
-      </c>
-      <c r="AS7">
-        <v>0.67249999999999999</v>
-      </c>
       <c r="AT7">
-        <v>0.71140000000000003</v>
+        <v>0.68440000000000001</v>
       </c>
       <c r="AU7">
-        <v>0.70569999999999999</v>
+        <v>0.67379999999999995</v>
       </c>
       <c r="AV7">
-        <v>0.73209999999999997</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="AW7">
         <v>0.68779999999999997</v>
       </c>
       <c r="AX7">
-        <v>0.70409999999999995</v>
+        <v>0.70369999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.70940000000000003</v>
+        <v>0.6532</v>
       </c>
       <c r="B8">
-        <v>0.64470000000000005</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="C8">
-        <v>0.68979999999999997</v>
+        <v>0.66949999999999998</v>
       </c>
       <c r="D8">
-        <v>0.68799999999999994</v>
+        <v>0.6694</v>
       </c>
       <c r="E8">
-        <v>0.6764</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="F8">
-        <v>0.66679999999999995</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="G8">
-        <v>0.65049999999999997</v>
+        <v>0.67469999999999997</v>
       </c>
       <c r="H8">
-        <v>0.66439999999999999</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="I8">
-        <v>0.67110000000000003</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="J8">
-        <v>0.68820000000000003</v>
+        <v>0.66320000000000001</v>
       </c>
       <c r="K8">
-        <v>0.69420000000000004</v>
+        <v>0.66310000000000002</v>
       </c>
       <c r="L8">
-        <v>0.68820000000000003</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="M8">
-        <v>0.68640000000000001</v>
+        <v>0.65329999999999999</v>
       </c>
       <c r="N8">
-        <v>0.69799999999999995</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="O8">
-        <v>0.69650000000000001</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="P8">
-        <v>0.67249999999999999</v>
+        <v>0.6855</v>
       </c>
       <c r="Q8">
-        <v>0.7046</v>
+        <v>0.69140000000000001</v>
       </c>
       <c r="R8">
-        <v>0.69520000000000004</v>
+        <v>0.70979999999999999</v>
       </c>
       <c r="S8">
-        <v>0.69040000000000001</v>
+        <v>0.68510000000000004</v>
       </c>
       <c r="T8">
-        <v>0.68720000000000003</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="U8">
-        <v>0.70299999999999996</v>
+        <v>0.70750000000000002</v>
       </c>
       <c r="V8">
-        <v>0.70169999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="W8">
-        <v>0.65680000000000005</v>
+        <v>0.71930000000000005</v>
       </c>
       <c r="X8">
-        <v>0.65949999999999998</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="Y8">
-        <v>0.67130000000000001</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.68140000000000001</v>
+        <v>0.69320000000000004</v>
       </c>
       <c r="AA8">
-        <v>0.67759999999999998</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="AB8">
-        <v>0.71079999999999999</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="AC8">
-        <v>0.70009999999999994</v>
+        <v>0.71330000000000005</v>
       </c>
       <c r="AD8">
-        <v>0.6825</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="AE8">
-        <v>0.68640000000000001</v>
+        <v>0.69589999999999996</v>
       </c>
       <c r="AF8">
-        <v>0.67300000000000004</v>
+        <v>0.6522</v>
       </c>
       <c r="AG8">
-        <v>0.68640000000000001</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="AH8">
-        <v>0.6875</v>
+        <v>0.70269999999999999</v>
       </c>
       <c r="AI8">
-        <v>0.7177</v>
+        <v>0.7056</v>
       </c>
       <c r="AJ8">
-        <v>0.6966</v>
+        <v>0.6633</v>
       </c>
       <c r="AK8">
-        <v>0.68400000000000005</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="AL8">
-        <v>0.6885</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="AM8">
-        <v>0.68049999999999999</v>
+        <v>0.69179999999999997</v>
       </c>
       <c r="AN8">
-        <v>0.68310000000000004</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="AO8">
-        <v>0.66369999999999996</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="AP8">
-        <v>0.66610000000000003</v>
+        <v>0.68479999999999996</v>
       </c>
       <c r="AQ8">
-        <v>0.69569999999999999</v>
+        <v>0.69989999999999997</v>
       </c>
       <c r="AR8">
-        <v>0.69320000000000004</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="AS8">
-        <v>0.66139999999999999</v>
+        <v>0.66269999999999996</v>
       </c>
       <c r="AT8">
-        <v>0.70679999999999998</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="AU8">
-        <v>0.67249999999999999</v>
+        <v>0.63660000000000005</v>
       </c>
       <c r="AV8">
-        <v>0.7268</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="AW8">
-        <v>0.65969999999999995</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="AX8">
-        <v>0.68520000000000003</v>
+        <v>0.69969999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.68300000000000005</v>
+        <v>0.63480000000000003</v>
       </c>
       <c r="B9">
-        <v>0.63970000000000005</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="C9">
-        <v>0.67689999999999995</v>
+        <v>0.65390000000000004</v>
       </c>
       <c r="D9">
-        <v>0.66010000000000002</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="E9">
-        <v>0.65200000000000002</v>
+        <v>0.60309999999999997</v>
       </c>
       <c r="F9">
-        <v>0.66449999999999998</v>
+        <v>0.70030000000000003</v>
       </c>
       <c r="G9">
-        <v>0.62649999999999995</v>
+        <v>0.66520000000000001</v>
       </c>
       <c r="H9">
-        <v>0.6552</v>
+        <v>0.68330000000000002</v>
       </c>
       <c r="I9">
-        <v>0.66859999999999997</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="J9">
-        <v>0.68640000000000001</v>
+        <v>0.66520000000000001</v>
       </c>
       <c r="K9">
-        <v>0.67789999999999995</v>
+        <v>0.64059999999999995</v>
       </c>
       <c r="L9">
-        <v>0.67200000000000004</v>
+        <v>0.65759999999999996</v>
       </c>
       <c r="M9">
-        <v>0.67349999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="N9">
-        <v>0.69259999999999999</v>
+        <v>0.69079999999999997</v>
       </c>
       <c r="O9">
-        <v>0.66859999999999997</v>
+        <v>0.71389999999999998</v>
       </c>
       <c r="P9">
-        <v>0.66320000000000001</v>
+        <v>0.69279999999999997</v>
       </c>
       <c r="Q9">
-        <v>0.68740000000000001</v>
+        <v>0.66690000000000005</v>
       </c>
       <c r="R9">
-        <v>0.68320000000000003</v>
+        <v>0.68959999999999999</v>
       </c>
       <c r="S9">
-        <v>0.67689999999999995</v>
+        <v>0.66169999999999995</v>
       </c>
       <c r="T9">
-        <v>0.66800000000000004</v>
+        <v>0.6804</v>
       </c>
       <c r="U9">
-        <v>0.70140000000000002</v>
+        <v>0.67889999999999995</v>
       </c>
       <c r="V9">
-        <v>0.68179999999999996</v>
+        <v>0.67849999999999999</v>
       </c>
       <c r="W9">
-        <v>0.63670000000000004</v>
+        <v>0.7036</v>
       </c>
       <c r="X9">
-        <v>0.64439999999999997</v>
+        <v>0.63880000000000003</v>
       </c>
       <c r="Y9">
-        <v>0.65539999999999998</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="Z9">
-        <v>0.69110000000000005</v>
+        <v>0.67359999999999998</v>
       </c>
       <c r="AA9">
-        <v>0.68300000000000005</v>
+        <v>0.68149999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.68669999999999998</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="AC9">
-        <v>0.6956</v>
+        <v>0.69059999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.66920000000000002</v>
+        <v>0.60719999999999996</v>
       </c>
       <c r="AE9">
-        <v>0.67530000000000001</v>
+        <v>0.69210000000000005</v>
       </c>
       <c r="AF9">
-        <v>0.67969999999999997</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="AG9">
-        <v>0.68230000000000002</v>
+        <v>0.65820000000000001</v>
       </c>
       <c r="AH9">
-        <v>0.67610000000000003</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="AI9">
-        <v>0.70630000000000004</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="AJ9">
-        <v>0.68140000000000001</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.67349999999999999</v>
+        <v>0.6694</v>
       </c>
       <c r="AL9">
-        <v>0.66559999999999997</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="AM9">
-        <v>0.66510000000000002</v>
+        <v>0.68689999999999996</v>
       </c>
       <c r="AN9">
-        <v>0.68620000000000003</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="AO9">
-        <v>0.64659999999999995</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="AP9">
-        <v>0.66800000000000004</v>
+        <v>0.67620000000000002</v>
       </c>
       <c r="AQ9">
-        <v>0.67369999999999997</v>
+        <v>0.67869999999999997</v>
       </c>
       <c r="AR9">
-        <v>0.68659999999999999</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="AS9">
-        <v>0.64280000000000004</v>
+        <v>0.65869999999999995</v>
       </c>
       <c r="AT9">
-        <v>0.71650000000000003</v>
+        <v>0.67169999999999996</v>
       </c>
       <c r="AU9">
-        <v>0.65720000000000001</v>
+        <v>0.5978</v>
       </c>
       <c r="AV9">
-        <v>0.7117</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.65769999999999995</v>
+        <v>0.66520000000000001</v>
       </c>
       <c r="AX9">
-        <v>0.67110000000000003</v>
+        <v>0.6825</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.68659999999999999</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="B10">
-        <v>0.63500000000000001</v>
+        <v>0.64359999999999995</v>
       </c>
       <c r="C10">
-        <v>0.65149999999999997</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="D10">
-        <v>0.66100000000000003</v>
+        <v>0.6573</v>
       </c>
       <c r="E10">
-        <v>0.65129999999999999</v>
+        <v>0.61150000000000004</v>
       </c>
       <c r="F10">
-        <v>0.65359999999999996</v>
+        <v>0.69230000000000003</v>
       </c>
       <c r="G10">
-        <v>0.61380000000000001</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="H10">
-        <v>0.63690000000000002</v>
+        <v>0.66590000000000005</v>
       </c>
       <c r="I10">
-        <v>0.6613</v>
+        <v>0.63619999999999999</v>
       </c>
       <c r="J10">
-        <v>0.68710000000000004</v>
+        <v>0.64880000000000004</v>
       </c>
       <c r="K10">
-        <v>0.66749999999999998</v>
+        <v>0.62729999999999997</v>
       </c>
       <c r="L10">
-        <v>0.65969999999999995</v>
+        <v>0.64759999999999995</v>
       </c>
       <c r="M10">
-        <v>0.64539999999999997</v>
+        <v>0.6502</v>
       </c>
       <c r="N10">
-        <v>0.68410000000000004</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="O10">
-        <v>0.66469999999999996</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="P10">
-        <v>0.66600000000000004</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="Q10">
-        <v>0.66410000000000002</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="R10">
-        <v>0.64800000000000002</v>
+        <v>0.6825</v>
       </c>
       <c r="S10">
+        <v>0.64970000000000006</v>
+      </c>
+      <c r="T10">
+        <v>0.65749999999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.67949999999999999</v>
+      </c>
+      <c r="V10">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0.70120000000000005</v>
+      </c>
+      <c r="X10">
+        <v>0.62760000000000005</v>
+      </c>
+      <c r="Y10">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="AA10">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="AB10">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="AC10">
+        <v>0.67230000000000001</v>
+      </c>
+      <c r="AD10">
+        <v>0.5907</v>
+      </c>
+      <c r="AE10">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="AF10">
+        <v>0.64829999999999999</v>
+      </c>
+      <c r="AG10">
         <v>0.65759999999999996</v>
       </c>
-      <c r="T10">
-        <v>0.66639999999999999</v>
-      </c>
-      <c r="U10">
-        <v>0.70069999999999999</v>
-      </c>
-      <c r="V10">
-        <v>0.66149999999999998</v>
-      </c>
-      <c r="W10">
-        <v>0.63490000000000002</v>
-      </c>
-      <c r="X10">
-        <v>0.62790000000000001</v>
-      </c>
-      <c r="Y10">
-        <v>0.65539999999999998</v>
-      </c>
-      <c r="Z10">
-        <v>0.67220000000000002</v>
-      </c>
-      <c r="AA10">
-        <v>0.65529999999999999</v>
-      </c>
-      <c r="AB10">
-        <v>0.6845</v>
-      </c>
-      <c r="AC10">
-        <v>0.69420000000000004</v>
-      </c>
-      <c r="AD10">
-        <v>0.65449999999999997</v>
-      </c>
-      <c r="AE10">
-        <v>0.67379999999999995</v>
-      </c>
-      <c r="AF10">
-        <v>0.67359999999999998</v>
-      </c>
-      <c r="AG10">
-        <v>0.67349999999999999</v>
-      </c>
       <c r="AH10">
-        <v>0.67889999999999995</v>
+        <v>0.66759999999999997</v>
       </c>
       <c r="AI10">
-        <v>0.69750000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="AJ10">
-        <v>0.66120000000000001</v>
+        <v>0.65659999999999996</v>
       </c>
       <c r="AK10">
+        <v>0.68010000000000004</v>
+      </c>
+      <c r="AL10">
+        <v>0.6421</v>
+      </c>
+      <c r="AM10">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="AN10">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="AO10">
         <v>0.66110000000000002</v>
       </c>
-      <c r="AL10">
-        <v>0.6522</v>
-      </c>
-      <c r="AM10">
-        <v>0.65769999999999995</v>
-      </c>
-      <c r="AN10">
-        <v>0.66620000000000001</v>
-      </c>
-      <c r="AO10">
-        <v>0.65269999999999995</v>
-      </c>
       <c r="AP10">
-        <v>0.65900000000000003</v>
+        <v>0.68179999999999996</v>
       </c>
       <c r="AQ10">
-        <v>0.68700000000000006</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.66600000000000004</v>
+        <v>0.64590000000000003</v>
       </c>
       <c r="AS10">
-        <v>0.65669999999999995</v>
+        <v>0.64629999999999999</v>
       </c>
       <c r="AT10">
-        <v>0.68400000000000005</v>
+        <v>0.66320000000000001</v>
       </c>
       <c r="AU10">
-        <v>0.63660000000000005</v>
+        <v>0.58950000000000002</v>
       </c>
       <c r="AV10">
-        <v>0.7248</v>
+        <v>0.67789999999999995</v>
       </c>
       <c r="AW10">
-        <v>0.64080000000000004</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AX10">
-        <v>0.6633</v>
+        <v>0.67849999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.66569999999999996</v>
+        <v>0.63009999999999999</v>
       </c>
       <c r="B11">
-        <v>0.62739999999999996</v>
+        <v>0.62580000000000002</v>
       </c>
       <c r="C11">
-        <v>0.65149999999999997</v>
+        <v>0.63090000000000002</v>
       </c>
       <c r="D11">
+        <v>0.64429999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.60029999999999994</v>
+      </c>
+      <c r="F11">
+        <v>0.68359999999999999</v>
+      </c>
+      <c r="G11">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.63729999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.61140000000000005</v>
+      </c>
+      <c r="L11">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.63770000000000004</v>
+      </c>
+      <c r="N11">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="O11">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="R11">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="S11">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="T11">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="U11">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="V11">
+        <v>0.62370000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.69950000000000001</v>
+      </c>
+      <c r="X11">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="Y11">
+        <v>0.63449999999999995</v>
+      </c>
+      <c r="Z11">
+        <v>0.65290000000000004</v>
+      </c>
+      <c r="AA11">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>0.59240000000000004</v>
+      </c>
+      <c r="AE11">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="AF11">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="AG11">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="AI11">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="AJ11">
+        <v>0.63819999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AL11">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="AM11">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="AN11">
         <v>0.65080000000000005</v>
       </c>
-      <c r="E11">
-        <v>0.65310000000000001</v>
-      </c>
-      <c r="F11">
-        <v>0.63270000000000004</v>
-      </c>
-      <c r="G11">
-        <v>0.61480000000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.64659999999999995</v>
-      </c>
-      <c r="I11">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="J11">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.65880000000000005</v>
-      </c>
-      <c r="L11">
-        <v>0.6663</v>
-      </c>
-      <c r="M11">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="N11">
-        <v>0.67989999999999995</v>
-      </c>
-      <c r="O11">
-        <v>0.66010000000000002</v>
-      </c>
-      <c r="P11">
-        <v>0.64670000000000005</v>
-      </c>
-      <c r="Q11">
-        <v>0.66820000000000002</v>
-      </c>
-      <c r="R11">
-        <v>0.64270000000000005</v>
-      </c>
-      <c r="S11">
-        <v>0.64280000000000004</v>
-      </c>
-      <c r="T11">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="U11">
-        <v>0.68920000000000003</v>
-      </c>
-      <c r="V11">
-        <v>0.6623</v>
-      </c>
-      <c r="W11">
-        <v>0.622</v>
-      </c>
-      <c r="X11">
-        <v>0.60250000000000004</v>
-      </c>
-      <c r="Y11">
-        <v>0.65210000000000001</v>
-      </c>
-      <c r="Z11">
-        <v>0.6613</v>
-      </c>
-      <c r="AA11">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="AB11">
-        <v>0.67059999999999997</v>
-      </c>
-      <c r="AC11">
-        <v>0.67610000000000003</v>
-      </c>
-      <c r="AD11">
-        <v>0.65349999999999997</v>
-      </c>
-      <c r="AE11">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="AF11">
-        <v>0.6744</v>
-      </c>
-      <c r="AG11">
-        <v>0.66390000000000005</v>
-      </c>
-      <c r="AH11">
-        <v>0.66890000000000005</v>
-      </c>
-      <c r="AI11">
-        <v>0.6774</v>
-      </c>
-      <c r="AJ11">
-        <v>0.66590000000000005</v>
-      </c>
-      <c r="AK11">
-        <v>0.64770000000000005</v>
-      </c>
-      <c r="AL11">
-        <v>0.64180000000000004</v>
-      </c>
-      <c r="AM11">
-        <v>0.63919999999999999</v>
-      </c>
-      <c r="AN11">
-        <v>0.64590000000000003</v>
-      </c>
       <c r="AO11">
-        <v>0.63490000000000002</v>
+        <v>0.65129999999999999</v>
       </c>
       <c r="AP11">
-        <v>0.63839999999999997</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="AQ11">
-        <v>0.66369999999999996</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="AR11">
-        <v>0.65769999999999995</v>
+        <v>0.67390000000000005</v>
       </c>
       <c r="AS11">
-        <v>0.63759999999999994</v>
+        <v>0.65590000000000004</v>
       </c>
       <c r="AT11">
-        <v>0.69089999999999996</v>
+        <v>0.65859999999999996</v>
       </c>
       <c r="AU11">
-        <v>0.63460000000000005</v>
+        <v>0.57020000000000004</v>
       </c>
       <c r="AV11">
-        <v>0.70399999999999996</v>
+        <v>0.66080000000000005</v>
       </c>
       <c r="AW11">
-        <v>0.61760000000000004</v>
+        <v>0.64259999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.67830000000000001</v>
+        <v>0.66769999999999996</v>
       </c>
     </row>
   </sheetData>
